--- a/R.2019.2/sample.survey/sample.survey.06A.xlsx
+++ b/R.2019.2/sample.survey/sample.survey.06A.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R.2019.2/sample.survey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C451A-1CCF-E740-A140-19C475725F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="15600" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="16960" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="예제 4-3" sheetId="1" r:id="rId1"/>
     <sheet name="교재 143쪽 연습문제 8번" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="homework" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>일련번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,22 +137,153 @@
   </si>
   <si>
     <t>신뢰구간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙제 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정분산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>((N-n)/N)*(s/n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차 한계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N^2*V(y_b)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i추정분산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i표준오차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N*E(y_i)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙제 3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙제 3-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_h, 비례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_h, 네이만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n * (N_h/N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n * (N_h*S_h / sum(N_k*S_k))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_h*S_h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙제 4-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정분산h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y-_h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y-_i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N*y-_h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N^2*V(y-_h)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/N sum(N_h y-_h)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(y_h)</t>
+  </si>
+  <si>
+    <t>표준오차h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/N^2 sum(N_h^2 V(y_h))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준 오차</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -209,6 +354,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -270,9 +421,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -283,11 +434,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,21 +448,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -322,6 +475,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -344,7 +500,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="그림 1" descr="수식_실습_6강.jpg"/>
+        <xdr:cNvPr id="1027" name="그림 1" descr="수식_실습_6강.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -410,14 +572,20 @@
       <xdr:rowOff>207166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111919</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619919</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>121441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="그림 1" descr="수식_실습_6강.jpg"/>
+        <xdr:cNvPr id="2051" name="그림 1" descr="수식_실습_6강.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -516,7 +684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,9 +717,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,6 +769,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,38 +961,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -801,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -812,7 +1014,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -823,7 +1025,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -834,7 +1036,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -845,7 +1047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -856,7 +1058,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -874,7 +1076,7 @@
         <v>1223.3333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -892,7 +1094,7 @@
         <v>16867.160493827159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -910,7 +1112,7 @@
         <v>129.87363278905829</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -928,7 +1130,7 @@
         <v>259.74726557811658</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -939,7 +1141,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
@@ -950,7 +1152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
@@ -961,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
@@ -974,7 +1176,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -987,7 +1189,7 @@
         <v>109555.55555555556</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="B20" s="1">
         <f>B16*B18</f>
         <v>152000</v>
@@ -997,7 +1199,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="B21" s="18">
         <f>B16^2*((B16-B17)/B16)*B19/B17</f>
         <v>357600000</v>
@@ -1021,30 +1223,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1067,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1096,7 +1300,7 @@
         <v>635.04</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1125,7 +1329,7 @@
         <v>3061.9439999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1154,7 +1358,7 @@
         <v>5174.1179999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1183,7 +1387,7 @@
         <v>6230.0160000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1202,17 +1406,17 @@
         <v>15101.117999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1425,7 @@
         <v>23.285714285714285</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1434,7 @@
         <v>7.7046520408163262E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1239,7 +1443,7 @@
         <v>8.7776147334092572E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1452,7 @@
         <v>0.17555229466818514</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1270,13 +1474,395 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3">
+        <v>1200</v>
+      </c>
+      <c r="E3">
+        <f>SUM(C3:D3)</f>
+        <v>2000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <f>SUM(I3:K3)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <f>SUM(C4:D4)</f>
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <f>SUM(I4:K4)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>135</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>92</v>
+      </c>
+      <c r="D6">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J6">
+        <v>2.6</v>
+      </c>
+      <c r="K6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <f>((C3-C4)/C3)*C6/C4</f>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="D8">
+        <f>((D3-D4)/D3)*D6/D4</f>
+        <v>0.39</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <f>((I3-I4)/I3)*I6/I4</f>
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="J8">
+        <f>((J3-J4)/J3)*J6/J4</f>
+        <v>0.16466666666666666</v>
+      </c>
+      <c r="K8">
+        <f>((K3-K4)/K3)*K6/K4</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <f>SQRT(C8)</f>
+        <v>1.0173494974687902</v>
+      </c>
+      <c r="D9">
+        <f>SQRT(D8)</f>
+        <v>0.62449979983983983</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <f>SQRT(I8)</f>
+        <v>0.28913664589601917</v>
+      </c>
+      <c r="J9">
+        <f>SQRT(J8)</f>
+        <v>0.40579140782755202</v>
+      </c>
+      <c r="K9">
+        <f>SQRT(K8)</f>
+        <v>0.55136195008360889</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11">
+        <f>I3*I5</f>
+        <v>6000</v>
+      </c>
+      <c r="J11">
+        <f>J3*J5</f>
+        <v>7800</v>
+      </c>
+      <c r="K11">
+        <f>K3*K5</f>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <f>C3*C5</f>
+        <v>108000</v>
+      </c>
+      <c r="D12">
+        <f>D3*D5</f>
+        <v>67200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <f>I3^2*I8</f>
+        <v>20900</v>
+      </c>
+      <c r="J12">
+        <f>J3^2*J8</f>
+        <v>14819.999999999998</v>
+      </c>
+      <c r="K12">
+        <f>K3^2*K8</f>
+        <v>12160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <f>C3^2*C8</f>
+        <v>662400</v>
+      </c>
+      <c r="D13">
+        <f>D3^2*D8</f>
+        <v>561600</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <f>SUM(I11:K11)/L3</f>
+        <v>23.2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C12:D12)/E3</f>
+        <v>87.6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <f>SUM(I12:K12)/L3^2</f>
+        <v>4.7879999999999999E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C13:D13)/E3^2</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <f>2*SQRT(I14)</f>
+        <v>0.43762998069145126</v>
+      </c>
+      <c r="J15" s="28">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <f>SQRT(C15)</f>
+        <v>0.55317266743757321</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <f>I13-I15</f>
+        <v>22.762370019308548</v>
+      </c>
+      <c r="J16">
+        <f>I13+I15</f>
+        <v>23.63762998069145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <f>$C$18*(C3/$E3)</f>
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <f>$C$18*(D3/$E3)</f>
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <f>C3*SQRT(C6)</f>
+        <v>7673.3304373003502</v>
+      </c>
+      <c r="D20">
+        <f>D3*SQRT(D6)</f>
+        <v>8653.3230611135732</v>
+      </c>
+      <c r="E20">
+        <f>SUM(C20:D20)</f>
+        <v>16326.653498413923</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <f>$C$18*C20/$E20</f>
+        <v>140.99638553692193</v>
+      </c>
+      <c r="D21">
+        <f>$C$18*D20/$E20</f>
+        <v>159.00361446307807</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
